--- a/carbon_price_data_from4.xlsx
+++ b/carbon_price_data_from4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:J1751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A760" sqref="$A760:$XFD760"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
